--- a/src/KairosWeb_Groep6/resultaat.xlsx
+++ b/src/KairosWeb_Groep6/resultaat.xlsx
@@ -8,7 +8,6 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\KairosWeb_Groep6\src\KairosWeb_Groep6\Models\Domain\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection lockRevision="1" lockStructure="1" lockWindows="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16092" windowHeight="9060"/>
   </bookViews>
@@ -1270,7 +1269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I284"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" windowProtection="1">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -1961,7 +1960,6 @@
       <c r="F284" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1"/>
   <mergeCells>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="B2:H4"/>
